--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.3617975237006</v>
+        <v>23.34546866666667</v>
       </c>
       <c r="H2">
-        <v>20.3617975237006</v>
+        <v>70.036406</v>
       </c>
       <c r="I2">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="J2">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.1594514786061</v>
+        <v>223.2367336666667</v>
       </c>
       <c r="N2">
-        <v>75.1594514786061</v>
+        <v>669.710201</v>
       </c>
       <c r="O2">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492647</v>
       </c>
       <c r="P2">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492646</v>
       </c>
       <c r="Q2">
-        <v>1530.381532999777</v>
+        <v>5211.566171064178</v>
       </c>
       <c r="R2">
-        <v>1530.381532999777</v>
+        <v>46904.0955395776</v>
       </c>
       <c r="S2">
-        <v>0.3853138628743456</v>
+        <v>0.449063400600577</v>
       </c>
       <c r="T2">
-        <v>0.3853138628743456</v>
+        <v>0.449063400600577</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.3617975237006</v>
+        <v>23.34546866666667</v>
       </c>
       <c r="H3">
-        <v>20.3617975237006</v>
+        <v>70.036406</v>
       </c>
       <c r="I3">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="J3">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.07541410519073</v>
+        <v>4.280784333333333</v>
       </c>
       <c r="N3">
-        <v>4.07541410519073</v>
+        <v>12.842353</v>
       </c>
       <c r="O3">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="P3">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="Q3">
-        <v>82.98275683512711</v>
+        <v>99.93691652259088</v>
       </c>
       <c r="R3">
-        <v>82.98275683512711</v>
+        <v>899.4322487033179</v>
       </c>
       <c r="S3">
-        <v>0.0208930948908085</v>
+        <v>0.008611233189044738</v>
       </c>
       <c r="T3">
-        <v>0.0208930948908085</v>
+        <v>0.008611233189044738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.3617975237006</v>
+        <v>23.34546866666667</v>
       </c>
       <c r="H4">
-        <v>20.3617975237006</v>
+        <v>70.036406</v>
       </c>
       <c r="I4">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="J4">
-        <v>0.4405347952859606</v>
+        <v>0.4715073400272545</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.69599951391292</v>
+        <v>6.876463666666666</v>
       </c>
       <c r="N4">
-        <v>6.69599951391292</v>
+        <v>20.629391</v>
       </c>
       <c r="O4">
-        <v>0.07792310139434849</v>
+        <v>0.02933720233672951</v>
       </c>
       <c r="P4">
-        <v>0.07792310139434849</v>
+        <v>0.0293372023367295</v>
       </c>
       <c r="Q4">
-        <v>136.3425863210925</v>
+        <v>160.5342670676384</v>
       </c>
       <c r="R4">
-        <v>136.3425863210925</v>
+        <v>1444.808403608746</v>
       </c>
       <c r="S4">
-        <v>0.03432783752080646</v>
+        <v>0.01383270623763268</v>
       </c>
       <c r="T4">
-        <v>0.03432783752080646</v>
+        <v>0.01383270623763268</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.3878080221322</v>
+        <v>12.57337833333333</v>
       </c>
       <c r="H5">
-        <v>12.3878080221322</v>
+        <v>37.720135</v>
       </c>
       <c r="I5">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="J5">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>75.1594514786061</v>
+        <v>223.2367336666667</v>
       </c>
       <c r="N5">
-        <v>75.1594514786061</v>
+        <v>669.710201</v>
       </c>
       <c r="O5">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492647</v>
       </c>
       <c r="P5">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492646</v>
       </c>
       <c r="Q5">
-        <v>931.0608559657325</v>
+        <v>2806.83991028857</v>
       </c>
       <c r="R5">
-        <v>931.0608559657325</v>
+        <v>25261.55919259713</v>
       </c>
       <c r="S5">
-        <v>0.2344190956617505</v>
+        <v>0.2418561011570589</v>
       </c>
       <c r="T5">
-        <v>0.2344190956617505</v>
+        <v>0.2418561011570589</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.3878080221322</v>
+        <v>12.57337833333333</v>
       </c>
       <c r="H6">
-        <v>12.3878080221322</v>
+        <v>37.720135</v>
       </c>
       <c r="I6">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="J6">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.07541410519073</v>
+        <v>4.280784333333333</v>
       </c>
       <c r="N6">
-        <v>4.07541410519073</v>
+        <v>12.842353</v>
       </c>
       <c r="O6">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="P6">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="Q6">
-        <v>50.48544754579245</v>
+        <v>53.8239209864061</v>
       </c>
       <c r="R6">
-        <v>50.48544754579245</v>
+        <v>484.415288877655</v>
       </c>
       <c r="S6">
-        <v>0.01271104126216104</v>
+        <v>0.004637829051468575</v>
       </c>
       <c r="T6">
-        <v>0.01271104126216104</v>
+        <v>0.004637829051468575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.3878080221322</v>
+        <v>12.57337833333333</v>
       </c>
       <c r="H7">
-        <v>12.3878080221322</v>
+        <v>37.720135</v>
       </c>
       <c r="I7">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="J7">
-        <v>0.2680146713333968</v>
+        <v>0.2539439348061199</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.69599951391292</v>
+        <v>6.876463666666666</v>
       </c>
       <c r="N7">
-        <v>6.69599951391292</v>
+        <v>20.629391</v>
       </c>
       <c r="O7">
-        <v>0.07792310139434849</v>
+        <v>0.02933720233672951</v>
       </c>
       <c r="P7">
-        <v>0.07792310139434849</v>
+        <v>0.0293372023367295</v>
       </c>
       <c r="Q7">
-        <v>82.94875649464377</v>
+        <v>86.46037927642054</v>
       </c>
       <c r="R7">
-        <v>82.94875649464377</v>
+        <v>778.1434134877849</v>
       </c>
       <c r="S7">
-        <v>0.02088453440948526</v>
+        <v>0.007450004597592385</v>
       </c>
       <c r="T7">
-        <v>0.02088453440948526</v>
+        <v>0.007450004597592384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.4710284235755</v>
+        <v>13.59357133333333</v>
       </c>
       <c r="H8">
-        <v>13.4710284235755</v>
+        <v>40.780714</v>
       </c>
       <c r="I8">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="J8">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>75.1594514786061</v>
+        <v>223.2367336666667</v>
       </c>
       <c r="N8">
-        <v>75.1594514786061</v>
+        <v>669.710201</v>
       </c>
       <c r="O8">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492647</v>
       </c>
       <c r="P8">
-        <v>0.8746502364795727</v>
+        <v>0.9523995969492646</v>
       </c>
       <c r="Q8">
-        <v>1012.475107168646</v>
+        <v>3034.584463318168</v>
       </c>
       <c r="R8">
-        <v>1012.475107168646</v>
+        <v>27311.26016986351</v>
       </c>
       <c r="S8">
-        <v>0.2549172779434767</v>
+        <v>0.2614800951916287</v>
       </c>
       <c r="T8">
-        <v>0.2549172779434767</v>
+        <v>0.2614800951916287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.4710284235755</v>
+        <v>13.59357133333333</v>
       </c>
       <c r="H9">
-        <v>13.4710284235755</v>
+        <v>40.780714</v>
       </c>
       <c r="I9">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="J9">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.07541410519073</v>
+        <v>4.280784333333333</v>
       </c>
       <c r="N9">
-        <v>4.07541410519073</v>
+        <v>12.842353</v>
       </c>
       <c r="O9">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="P9">
-        <v>0.04742666212607871</v>
+        <v>0.01826320071400582</v>
       </c>
       <c r="Q9">
-        <v>54.90001924886484</v>
+        <v>58.19114719778243</v>
       </c>
       <c r="R9">
-        <v>54.90001924886484</v>
+        <v>523.7203247800419</v>
       </c>
       <c r="S9">
-        <v>0.01382252597310917</v>
+        <v>0.005014138473492505</v>
       </c>
       <c r="T9">
-        <v>0.01382252597310917</v>
+        <v>0.005014138473492505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.4710284235755</v>
+        <v>13.59357133333333</v>
       </c>
       <c r="H10">
-        <v>13.4710284235755</v>
+        <v>40.780714</v>
       </c>
       <c r="I10">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="J10">
-        <v>0.2914505333806427</v>
+        <v>0.2745487251666257</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.69599951391292</v>
+        <v>6.876463666666666</v>
       </c>
       <c r="N10">
-        <v>6.69599951391292</v>
+        <v>20.629391</v>
       </c>
       <c r="O10">
-        <v>0.07792310139434849</v>
+        <v>0.02933720233672951</v>
       </c>
       <c r="P10">
-        <v>0.07792310139434849</v>
+        <v>0.0293372023367295</v>
       </c>
       <c r="Q10">
-        <v>90.20199977616868</v>
+        <v>93.4756993739082</v>
       </c>
       <c r="R10">
-        <v>90.20199977616868</v>
+        <v>841.2812943651738</v>
       </c>
       <c r="S10">
-        <v>0.02271072946405677</v>
+        <v>0.008054491501504439</v>
       </c>
       <c r="T10">
-        <v>0.02271072946405677</v>
+        <v>0.008054491501504437</v>
       </c>
     </row>
   </sheetData>
